--- a/data/pca/factorExposure/factorExposure_2015-02-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01870504548905572</v>
+        <v>0.01111056648459031</v>
       </c>
       <c r="C2">
-        <v>-0.03888817071795725</v>
+        <v>-0.05395583318383497</v>
       </c>
       <c r="D2">
-        <v>0.1123114068181735</v>
+        <v>0.08807255074710399</v>
       </c>
       <c r="E2">
-        <v>0.07256904881813363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.07284423380058702</v>
+      </c>
+      <c r="F2">
+        <v>0.03827984214422495</v>
+      </c>
+      <c r="G2">
+        <v>-0.1506432926603136</v>
+      </c>
+      <c r="H2">
+        <v>0.04735388578756859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04529783251439463</v>
+        <v>0.02029027247229543</v>
       </c>
       <c r="C4">
-        <v>-0.07987770312509211</v>
+        <v>-0.1149469555265106</v>
       </c>
       <c r="D4">
-        <v>0.07837227664053231</v>
+        <v>0.09363671956687145</v>
       </c>
       <c r="E4">
-        <v>0.1330490879072322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.08215543950619227</v>
+      </c>
+      <c r="F4">
+        <v>0.09615586715103609</v>
+      </c>
+      <c r="G4">
+        <v>-0.01148010296103258</v>
+      </c>
+      <c r="H4">
+        <v>-0.06358056793974425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02908557239172795</v>
+        <v>0.03360657038061016</v>
       </c>
       <c r="C6">
-        <v>-0.02070970931900005</v>
+        <v>-0.03930620117195944</v>
       </c>
       <c r="D6">
-        <v>0.09188130713054042</v>
+        <v>0.07698834165657441</v>
       </c>
       <c r="E6">
-        <v>0.09305731660290432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1079694943171122</v>
+      </c>
+      <c r="F6">
+        <v>0.04256287582887797</v>
+      </c>
+      <c r="G6">
+        <v>0.009431785138720174</v>
+      </c>
+      <c r="H6">
+        <v>0.02041194788961881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.003545918523284321</v>
+        <v>0.005515034292372339</v>
       </c>
       <c r="C7">
-        <v>-0.03282619197146101</v>
+        <v>-0.04558665313515626</v>
       </c>
       <c r="D7">
-        <v>0.07545254171419541</v>
+        <v>0.05689748447942326</v>
       </c>
       <c r="E7">
-        <v>0.03604441523075055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.09130657111028466</v>
+      </c>
+      <c r="F7">
+        <v>0.01201810102809672</v>
+      </c>
+      <c r="G7">
+        <v>0.0001462785742726611</v>
+      </c>
+      <c r="H7">
+        <v>-0.02991757017253929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.000533872262946952</v>
+        <v>-0.004935768511832349</v>
       </c>
       <c r="C8">
-        <v>-0.02909232090376831</v>
+        <v>-0.03741354975716301</v>
       </c>
       <c r="D8">
-        <v>0.06293547418168394</v>
+        <v>0.04678213360845172</v>
       </c>
       <c r="E8">
-        <v>0.07489256298236478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.06370264034374781</v>
+      </c>
+      <c r="F8">
+        <v>0.05530021016468727</v>
+      </c>
+      <c r="G8">
+        <v>-0.06881628322817869</v>
+      </c>
+      <c r="H8">
+        <v>-0.04050275407941464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03392531776416322</v>
+        <v>0.0142694620083295</v>
       </c>
       <c r="C9">
-        <v>-0.06967873018933401</v>
+        <v>-0.0941239105558275</v>
       </c>
       <c r="D9">
-        <v>0.08385574861905579</v>
+        <v>0.08104879943021089</v>
       </c>
       <c r="E9">
-        <v>0.1119744977914644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0720698137407189</v>
+      </c>
+      <c r="F9">
+        <v>0.06534002664491857</v>
+      </c>
+      <c r="G9">
+        <v>-0.0001480306068301157</v>
+      </c>
+      <c r="H9">
+        <v>-0.01828388970037986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1984436663058603</v>
+        <v>0.2449459362305286</v>
       </c>
       <c r="C10">
-        <v>0.1563973321092615</v>
+        <v>0.09181028840568045</v>
       </c>
       <c r="D10">
-        <v>-0.04745345640439787</v>
+        <v>-0.009618639023780819</v>
       </c>
       <c r="E10">
-        <v>0.01632478441700217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02704105212354439</v>
+      </c>
+      <c r="F10">
+        <v>0.03924388364107172</v>
+      </c>
+      <c r="G10">
+        <v>0.01166557533114641</v>
+      </c>
+      <c r="H10">
+        <v>-0.007227387833623034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01078490064128603</v>
+        <v>0.009274948164041267</v>
       </c>
       <c r="C11">
-        <v>-0.04322086936755735</v>
+        <v>-0.06102049359274542</v>
       </c>
       <c r="D11">
-        <v>0.04075559454817276</v>
+        <v>0.02890761939682668</v>
       </c>
       <c r="E11">
-        <v>-0.0009129458424105753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04875330057487588</v>
+      </c>
+      <c r="F11">
+        <v>-0.004931042369974937</v>
+      </c>
+      <c r="G11">
+        <v>0.003646452369899318</v>
+      </c>
+      <c r="H11">
+        <v>-0.01244327931041399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01037623979726085</v>
+        <v>0.009536378128659848</v>
       </c>
       <c r="C12">
-        <v>-0.04511289444005808</v>
+        <v>-0.05294944030102142</v>
       </c>
       <c r="D12">
-        <v>0.05009168800780221</v>
+        <v>0.03393007918896424</v>
       </c>
       <c r="E12">
-        <v>0.01491085854079395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03985142404396511</v>
+      </c>
+      <c r="F12">
+        <v>-0.009519781528434112</v>
+      </c>
+      <c r="G12">
+        <v>0.004855016656505035</v>
+      </c>
+      <c r="H12">
+        <v>0.02021404782816094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01016574125070716</v>
+        <v>0.00442858404647393</v>
       </c>
       <c r="C13">
-        <v>-0.03247833372584309</v>
+        <v>-0.06227584449555641</v>
       </c>
       <c r="D13">
-        <v>0.1071025148781984</v>
+        <v>0.1243536883618274</v>
       </c>
       <c r="E13">
-        <v>0.09280446050373323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1019628439535972</v>
+      </c>
+      <c r="F13">
+        <v>0.03998239534793779</v>
+      </c>
+      <c r="G13">
+        <v>-0.05668235840960816</v>
+      </c>
+      <c r="H13">
+        <v>0.06974454506627818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01247741447390004</v>
+        <v>0.001745740761935803</v>
       </c>
       <c r="C14">
-        <v>-0.02083267783851333</v>
+        <v>-0.03482835609760582</v>
       </c>
       <c r="D14">
-        <v>0.05883621625251375</v>
+        <v>0.05994870573732387</v>
       </c>
       <c r="E14">
-        <v>0.04177836596956577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.1076160825150188</v>
+      </c>
+      <c r="F14">
+        <v>0.03632863507752961</v>
+      </c>
+      <c r="G14">
+        <v>-0.02314897750209532</v>
+      </c>
+      <c r="H14">
+        <v>0.03286611412049283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003181741911087688</v>
+        <v>-0.004014361562834615</v>
       </c>
       <c r="C15">
-        <v>-0.01253504430276813</v>
+        <v>-0.03081406788589647</v>
       </c>
       <c r="D15">
-        <v>0.04477045094140743</v>
+        <v>0.05188579425546096</v>
       </c>
       <c r="E15">
-        <v>0.02514707608509466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.05357764273587865</v>
+      </c>
+      <c r="F15">
+        <v>0.01266090423282512</v>
+      </c>
+      <c r="G15">
+        <v>-0.02329612324238756</v>
+      </c>
+      <c r="H15">
+        <v>-0.01035331909350973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01077063517701128</v>
+        <v>0.008754313402436138</v>
       </c>
       <c r="C16">
-        <v>-0.04110453905110858</v>
+        <v>-0.05345608991407197</v>
       </c>
       <c r="D16">
-        <v>0.04248105026213721</v>
+        <v>0.03122401582285279</v>
       </c>
       <c r="E16">
-        <v>0.009452929136782346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.04496411275702093</v>
+      </c>
+      <c r="F16">
+        <v>-0.003992583276624494</v>
+      </c>
+      <c r="G16">
+        <v>0.01585189644489532</v>
+      </c>
+      <c r="H16">
+        <v>-0.002208170676553095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.003313969580485071</v>
+        <v>-0.004049170978254002</v>
       </c>
       <c r="C19">
-        <v>-0.02386019164894019</v>
+        <v>-0.01722072744408777</v>
       </c>
       <c r="D19">
-        <v>0.05053567514493321</v>
+        <v>0.02876682826619995</v>
       </c>
       <c r="E19">
-        <v>0.0450845100248517</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.009935273062548114</v>
+      </c>
+      <c r="F19">
+        <v>0.008640926745520661</v>
+      </c>
+      <c r="G19">
+        <v>-0.02461448082780703</v>
+      </c>
+      <c r="H19">
+        <v>0.01274096754809638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0004344019988395196</v>
+        <v>0.004805016190135509</v>
       </c>
       <c r="C20">
-        <v>-0.02968116543292606</v>
+        <v>-0.04633972430243821</v>
       </c>
       <c r="D20">
-        <v>0.05487536944440361</v>
+        <v>0.06230343464488017</v>
       </c>
       <c r="E20">
-        <v>0.062622004418126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.06326519418025953</v>
+      </c>
+      <c r="F20">
+        <v>0.02432330793987496</v>
+      </c>
+      <c r="G20">
+        <v>0.01671557581392363</v>
+      </c>
+      <c r="H20">
+        <v>-0.0265973714740185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001823645517218882</v>
+        <v>0.001577174391442274</v>
       </c>
       <c r="C21">
-        <v>-0.03573162519072005</v>
+        <v>-0.04823482215191541</v>
       </c>
       <c r="D21">
-        <v>0.08485849434858543</v>
+        <v>0.08967438663355153</v>
       </c>
       <c r="E21">
-        <v>0.1419492193243618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.08582576700633228</v>
+      </c>
+      <c r="F21">
+        <v>0.09671704939172056</v>
+      </c>
+      <c r="G21">
+        <v>-0.07145531112527811</v>
+      </c>
+      <c r="H21">
+        <v>0.08603720919277856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00377932027164523</v>
+        <v>-0.007404738893271395</v>
       </c>
       <c r="C22">
-        <v>-0.05458816043689575</v>
+        <v>-0.08404380515336173</v>
       </c>
       <c r="D22">
-        <v>0.190238635863388</v>
+        <v>0.2034813101827426</v>
       </c>
       <c r="E22">
-        <v>0.1432860798851776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.1128499323961702</v>
+      </c>
+      <c r="F22">
+        <v>0.05712594501590317</v>
+      </c>
+      <c r="G22">
+        <v>-0.2199730499514833</v>
+      </c>
+      <c r="H22">
+        <v>-0.1295879312971059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004186783034289071</v>
+        <v>-0.004292779567434239</v>
       </c>
       <c r="C23">
-        <v>-0.0549288714792535</v>
+        <v>-0.08616787713671127</v>
       </c>
       <c r="D23">
-        <v>0.1892011280432411</v>
+        <v>0.20689466229279</v>
       </c>
       <c r="E23">
-        <v>0.1433021227279084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.1102280955243362</v>
+      </c>
+      <c r="F23">
+        <v>0.05961791468427265</v>
+      </c>
+      <c r="G23">
+        <v>-0.2144146312125353</v>
+      </c>
+      <c r="H23">
+        <v>-0.1229817840836146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01686402220325929</v>
+        <v>0.01010696705283164</v>
       </c>
       <c r="C24">
-        <v>-0.06244239809648595</v>
+        <v>-0.07159101887914443</v>
       </c>
       <c r="D24">
-        <v>0.05600014696096831</v>
+        <v>0.02946647047037292</v>
       </c>
       <c r="E24">
-        <v>0.01884568666947155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05693963784937905</v>
+      </c>
+      <c r="F24">
+        <v>-0.001586585203254393</v>
+      </c>
+      <c r="G24">
+        <v>-0.00600774294715515</v>
+      </c>
+      <c r="H24">
+        <v>-0.006702989672039093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01638632437157079</v>
+        <v>0.01421381839128233</v>
       </c>
       <c r="C25">
-        <v>-0.05415773550252764</v>
+        <v>-0.06552745205523154</v>
       </c>
       <c r="D25">
-        <v>0.04177053610095982</v>
+        <v>0.03292116356430143</v>
       </c>
       <c r="E25">
-        <v>0.01682990061126081</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03923992419585082</v>
+      </c>
+      <c r="F25">
+        <v>-0.0001347212190670243</v>
+      </c>
+      <c r="G25">
+        <v>0.00796307780109389</v>
+      </c>
+      <c r="H25">
+        <v>-0.004814335907466587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00597317633621186</v>
+        <v>0.01728808871255404</v>
       </c>
       <c r="C26">
-        <v>-0.01979791239391816</v>
+        <v>-0.03298399514992825</v>
       </c>
       <c r="D26">
-        <v>0.04802560918927327</v>
+        <v>0.03719658798347304</v>
       </c>
       <c r="E26">
-        <v>0.04702999590171614</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.07389563294319099</v>
+      </c>
+      <c r="F26">
+        <v>0.05042555859251779</v>
+      </c>
+      <c r="G26">
+        <v>-0.02484006253263709</v>
+      </c>
+      <c r="H26">
+        <v>0.003396369080992813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2786383487611222</v>
+        <v>0.3135019236583964</v>
       </c>
       <c r="C28">
-        <v>0.1681967591043242</v>
+        <v>0.08991449986937773</v>
       </c>
       <c r="D28">
-        <v>-0.01277852141178087</v>
+        <v>-0.003157683760781485</v>
       </c>
       <c r="E28">
-        <v>0.03519221828852026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05320417058043694</v>
+      </c>
+      <c r="F28">
+        <v>0.04907080468263744</v>
+      </c>
+      <c r="G28">
+        <v>-0.05395732534796271</v>
+      </c>
+      <c r="H28">
+        <v>-0.02834023362387714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.004418130937178547</v>
+        <v>0.001263073185543875</v>
       </c>
       <c r="C29">
-        <v>-0.02382256065632678</v>
+        <v>-0.04060653301676689</v>
       </c>
       <c r="D29">
-        <v>0.06082755545430346</v>
+        <v>0.06928720907775508</v>
       </c>
       <c r="E29">
-        <v>0.0541325791250794</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1195901744665471</v>
+      </c>
+      <c r="F29">
+        <v>0.04069862139109522</v>
+      </c>
+      <c r="G29">
+        <v>-0.01179304272730387</v>
+      </c>
+      <c r="H29">
+        <v>0.04586790677824143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02527189597343045</v>
+        <v>0.01651154438105838</v>
       </c>
       <c r="C30">
-        <v>-0.07459888174071146</v>
+        <v>-0.09929309039959462</v>
       </c>
       <c r="D30">
-        <v>0.1350698014760358</v>
+        <v>0.09770683395289909</v>
       </c>
       <c r="E30">
-        <v>0.1032334855734664</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.1198622646276699</v>
+      </c>
+      <c r="F30">
+        <v>0.0252251823884362</v>
+      </c>
+      <c r="G30">
+        <v>-0.01018672343578825</v>
+      </c>
+      <c r="H30">
+        <v>-0.02907256084814091</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03229966502460049</v>
+        <v>0.01053672504272145</v>
       </c>
       <c r="C31">
-        <v>-0.08504416685661306</v>
+        <v>-0.09551148420606174</v>
       </c>
       <c r="D31">
-        <v>0.04428799405650991</v>
+        <v>0.02340125159891061</v>
       </c>
       <c r="E31">
-        <v>0.03306823971709737</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.03024686526187563</v>
+      </c>
+      <c r="F31">
+        <v>0.02024998344243552</v>
+      </c>
+      <c r="G31">
+        <v>-0.02067834234589239</v>
+      </c>
+      <c r="H31">
+        <v>-0.007549102771341956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0151738018812294</v>
+        <v>0.01247455282306785</v>
       </c>
       <c r="C32">
-        <v>-0.04346688683397743</v>
+        <v>-0.05246626054246089</v>
       </c>
       <c r="D32">
-        <v>0.07217337236791296</v>
+        <v>0.07678640874437352</v>
       </c>
       <c r="E32">
-        <v>0.09631543019464631</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.02811036879098843</v>
+      </c>
+      <c r="F32">
+        <v>0.05290513641289331</v>
+      </c>
+      <c r="G32">
+        <v>-0.03348120235339858</v>
+      </c>
+      <c r="H32">
+        <v>0.02824233260826115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005039578368433684</v>
+        <v>0.006968409218522447</v>
       </c>
       <c r="C33">
-        <v>-0.04285345462005968</v>
+        <v>-0.0655942633135087</v>
       </c>
       <c r="D33">
-        <v>0.08654054629846149</v>
+        <v>0.08680558752173162</v>
       </c>
       <c r="E33">
-        <v>0.08388794042352823</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.08905566767946493</v>
+      </c>
+      <c r="F33">
+        <v>0.03611541083289081</v>
+      </c>
+      <c r="G33">
+        <v>-0.008621286662632791</v>
+      </c>
+      <c r="H33">
+        <v>0.003304708004383777</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01264038496085037</v>
+        <v>0.008370521561374458</v>
       </c>
       <c r="C34">
-        <v>-0.06129172021765</v>
+        <v>-0.06232150094589384</v>
       </c>
       <c r="D34">
-        <v>0.05700970000132057</v>
+        <v>0.01482611256629912</v>
       </c>
       <c r="E34">
-        <v>-0.02542777646162219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.04192612600956139</v>
+      </c>
+      <c r="F34">
+        <v>-0.03406513531969446</v>
+      </c>
+      <c r="G34">
+        <v>-0.00445659454903017</v>
+      </c>
+      <c r="H34">
+        <v>0.007292245227827349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0002606165987315942</v>
+        <v>0.004266646046267382</v>
       </c>
       <c r="C35">
-        <v>-0.001180867382008169</v>
+        <v>-0.01585263674653779</v>
       </c>
       <c r="D35">
-        <v>0.00141485393320863</v>
+        <v>0.02818759529643856</v>
       </c>
       <c r="E35">
-        <v>-0.0003235701601552452</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.03173015361202525</v>
+      </c>
+      <c r="F35">
+        <v>0.0242779111668503</v>
+      </c>
+      <c r="G35">
+        <v>-0.0005092041585051721</v>
+      </c>
+      <c r="H35">
+        <v>0.009775510993800276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006333065150198038</v>
+        <v>0.01135253807676148</v>
       </c>
       <c r="C36">
-        <v>-0.01096727540369712</v>
+        <v>-0.02529816529165444</v>
       </c>
       <c r="D36">
-        <v>0.04725106820292371</v>
+        <v>0.04936806072352352</v>
       </c>
       <c r="E36">
-        <v>0.07144647464633315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.06734570319982137</v>
+      </c>
+      <c r="F36">
+        <v>0.05269927799774743</v>
+      </c>
+      <c r="G36">
+        <v>-0.01116301565288322</v>
+      </c>
+      <c r="H36">
+        <v>0.004513968734289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001585475109114198</v>
+        <v>0.007991419756072283</v>
       </c>
       <c r="C38">
-        <v>-0.01033356625080921</v>
+        <v>-0.03002717447188334</v>
       </c>
       <c r="D38">
-        <v>0.07973579328713049</v>
+        <v>0.07609769330839668</v>
       </c>
       <c r="E38">
-        <v>0.05580379232699089</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.06628867630148999</v>
+      </c>
+      <c r="F38">
+        <v>0.0138349319114021</v>
+      </c>
+      <c r="G38">
+        <v>-0.02741005861968743</v>
+      </c>
+      <c r="H38">
+        <v>-0.04142582182028033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01209725919766082</v>
+        <v>0.006524509657393665</v>
       </c>
       <c r="C39">
-        <v>-0.06356470485527441</v>
+        <v>-0.0890874705323336</v>
       </c>
       <c r="D39">
-        <v>0.09818158703188293</v>
+        <v>0.06334836087827403</v>
       </c>
       <c r="E39">
-        <v>0.04552038591510509</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.1026234720680859</v>
+      </c>
+      <c r="F39">
+        <v>-0.0005659184892654266</v>
+      </c>
+      <c r="G39">
+        <v>-0.002564369994360277</v>
+      </c>
+      <c r="H39">
+        <v>0.0004698709983345356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01498671151854945</v>
+        <v>0.01301198550439353</v>
       </c>
       <c r="C40">
-        <v>-0.02978720682184954</v>
+        <v>-0.04320371223589162</v>
       </c>
       <c r="D40">
-        <v>0.1043547175742946</v>
+        <v>0.0656643708742668</v>
       </c>
       <c r="E40">
-        <v>0.0398867060038808</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.07962691876162929</v>
+      </c>
+      <c r="F40">
+        <v>-0.02139818778290468</v>
+      </c>
+      <c r="G40">
+        <v>-0.08179593171780102</v>
+      </c>
+      <c r="H40">
+        <v>0.01191673731531597</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008534616276323927</v>
+        <v>0.01738491715682266</v>
       </c>
       <c r="C41">
-        <v>-0.006949755883162293</v>
+        <v>-0.02497828124120358</v>
       </c>
       <c r="D41">
-        <v>0.02066643415757254</v>
+        <v>0.03507164709779929</v>
       </c>
       <c r="E41">
-        <v>0.03050121804985212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02258669988592514</v>
+      </c>
+      <c r="F41">
+        <v>0.02014500010396162</v>
+      </c>
+      <c r="G41">
+        <v>-0.005020184860553256</v>
+      </c>
+      <c r="H41">
+        <v>-0.006775103053161821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003487643029810836</v>
+        <v>0.0085846998610641</v>
       </c>
       <c r="C43">
-        <v>-0.003353933954580275</v>
+        <v>-0.01836283976487948</v>
       </c>
       <c r="D43">
-        <v>0.03561400335491164</v>
+        <v>0.04262463353370431</v>
       </c>
       <c r="E43">
-        <v>0.04126349336432123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03855068971239382</v>
+      </c>
+      <c r="F43">
+        <v>0.02570767566508785</v>
+      </c>
+      <c r="G43">
+        <v>-0.005261071559636145</v>
+      </c>
+      <c r="H43">
+        <v>-0.01821145705871213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.018038541731304</v>
+        <v>0.009634014972918071</v>
       </c>
       <c r="C44">
-        <v>-0.03238346874067417</v>
+        <v>-0.0526233290768146</v>
       </c>
       <c r="D44">
-        <v>0.07979055192965731</v>
+        <v>0.07764598741493559</v>
       </c>
       <c r="E44">
-        <v>0.1021177476245405</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.09251639273836916</v>
+      </c>
+      <c r="F44">
+        <v>0.04065672815117279</v>
+      </c>
+      <c r="G44">
+        <v>-0.03616259089612212</v>
+      </c>
+      <c r="H44">
+        <v>-0.02149300584398443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.001940702516980997</v>
+        <v>-0.0005939778439918325</v>
       </c>
       <c r="C46">
-        <v>-0.0326532770264773</v>
+        <v>-0.04311076155693928</v>
       </c>
       <c r="D46">
-        <v>0.06677572134658673</v>
+        <v>0.04503293367887951</v>
       </c>
       <c r="E46">
-        <v>0.05326178862254555</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.09242029542674454</v>
+      </c>
+      <c r="F46">
+        <v>0.03814814896225752</v>
+      </c>
+      <c r="G46">
+        <v>-0.02099112438199343</v>
+      </c>
+      <c r="H46">
+        <v>0.003232674939049855</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06757802912773844</v>
+        <v>0.03099686153799722</v>
       </c>
       <c r="C47">
-        <v>-0.1143895674626105</v>
+        <v>-0.1248469288821178</v>
       </c>
       <c r="D47">
-        <v>0.05005443797372282</v>
+        <v>0.01916672168922458</v>
       </c>
       <c r="E47">
-        <v>0.03784150517895108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.004055703433537125</v>
+      </c>
+      <c r="F47">
+        <v>-0.001051908535560825</v>
+      </c>
+      <c r="G47">
+        <v>0.01151209051303119</v>
+      </c>
+      <c r="H47">
+        <v>-0.01787910611031377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003870126084874788</v>
+        <v>0.01229403291115689</v>
       </c>
       <c r="C48">
-        <v>-0.01809723728343139</v>
+        <v>-0.03356839197812621</v>
       </c>
       <c r="D48">
-        <v>0.05042775868089532</v>
+        <v>0.0549239903692651</v>
       </c>
       <c r="E48">
-        <v>0.0804914814524969</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.07006844850505475</v>
+      </c>
+      <c r="F48">
+        <v>0.0651354202917713</v>
+      </c>
+      <c r="G48">
+        <v>-0.02015693301593467</v>
+      </c>
+      <c r="H48">
+        <v>-0.006667543650286283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002458213938225521</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.002086666043523951</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.001053572498773555</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0004355834532482924</v>
+      </c>
+      <c r="F49">
+        <v>-0.003789955625621273</v>
+      </c>
+      <c r="G49">
+        <v>0.006240372243431028</v>
+      </c>
+      <c r="H49">
+        <v>0.005015683332849304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03159988434826965</v>
+        <v>0.01479402622258329</v>
       </c>
       <c r="C50">
-        <v>-0.059179215661782</v>
+        <v>-0.07579933737546787</v>
       </c>
       <c r="D50">
-        <v>0.06054266891622517</v>
+        <v>0.03865871083774131</v>
       </c>
       <c r="E50">
-        <v>0.03485456632283548</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.03836674081307435</v>
+      </c>
+      <c r="F50">
+        <v>0.01231583946175446</v>
+      </c>
+      <c r="G50">
+        <v>-0.01595134198357007</v>
+      </c>
+      <c r="H50">
+        <v>-0.02005949431735634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005847548236517121</v>
+        <v>-0.003987163582664315</v>
       </c>
       <c r="C51">
-        <v>-0.006087786328881588</v>
+        <v>-0.01876718910435944</v>
       </c>
       <c r="D51">
-        <v>0.04883439019370373</v>
+        <v>0.02692215984736865</v>
       </c>
       <c r="E51">
-        <v>0.04183661695326447</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.06254395832019673</v>
+      </c>
+      <c r="F51">
+        <v>0.03761405206205678</v>
+      </c>
+      <c r="G51">
+        <v>-0.04491577157343524</v>
+      </c>
+      <c r="H51">
+        <v>0.0009998505550177751</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1028173280736708</v>
+        <v>0.05916138192450721</v>
       </c>
       <c r="C53">
-        <v>-0.1373490685073733</v>
+        <v>-0.1637329492226134</v>
       </c>
       <c r="D53">
-        <v>-0.008675779815231115</v>
+        <v>-0.01920582992134409</v>
       </c>
       <c r="E53">
-        <v>0.03573922196566572</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03014793159160199</v>
+      </c>
+      <c r="F53">
+        <v>0.03843871109037599</v>
+      </c>
+      <c r="G53">
+        <v>-0.008706016404229813</v>
+      </c>
+      <c r="H53">
+        <v>-0.01201106666139718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004571072696795901</v>
+        <v>0.01045255854737121</v>
       </c>
       <c r="C54">
-        <v>-0.0251402543372306</v>
+        <v>-0.04118764933444911</v>
       </c>
       <c r="D54">
-        <v>0.08154481469831726</v>
+        <v>0.06543651785582207</v>
       </c>
       <c r="E54">
-        <v>0.05458357805992158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.06103024795084681</v>
+      </c>
+      <c r="F54">
+        <v>0.01519732038926349</v>
+      </c>
+      <c r="G54">
+        <v>-0.02485390752230894</v>
+      </c>
+      <c r="H54">
+        <v>-0.02384511960271011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08528843343076012</v>
+        <v>0.04195390218485336</v>
       </c>
       <c r="C55">
-        <v>-0.1128984038584251</v>
+        <v>-0.1285379212145905</v>
       </c>
       <c r="D55">
-        <v>0.0005221138155403079</v>
+        <v>-0.04714023265782159</v>
       </c>
       <c r="E55">
-        <v>-0.0105976915602914</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.01495251316556155</v>
+      </c>
+      <c r="F55">
+        <v>0.0002036786262189403</v>
+      </c>
+      <c r="G55">
+        <v>-0.02160064334671583</v>
+      </c>
+      <c r="H55">
+        <v>-0.003980846764781078</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1246793331857976</v>
+        <v>0.05920614639792143</v>
       </c>
       <c r="C56">
-        <v>-0.163171839455621</v>
+        <v>-0.1940398948798879</v>
       </c>
       <c r="D56">
-        <v>0.01953461788149682</v>
+        <v>-0.04431184499131444</v>
       </c>
       <c r="E56">
-        <v>-0.01055741420983196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04162123176244802</v>
+      </c>
+      <c r="F56">
+        <v>-0.001843687768943791</v>
+      </c>
+      <c r="G56">
+        <v>-0.0718371368175351</v>
+      </c>
+      <c r="H56">
+        <v>-0.01625203003578275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.006629844119167072</v>
+        <v>0.009968759347376734</v>
       </c>
       <c r="C58">
-        <v>-0.02587525587258457</v>
+        <v>-0.07151740003053764</v>
       </c>
       <c r="D58">
-        <v>0.1805418675506213</v>
+        <v>0.2329270383091966</v>
       </c>
       <c r="E58">
-        <v>0.2252787564666519</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.1372681780293218</v>
+      </c>
+      <c r="F58">
+        <v>0.1516598178576883</v>
+      </c>
+      <c r="G58">
+        <v>-0.1531413248926191</v>
+      </c>
+      <c r="H58">
+        <v>-0.09016022436101492</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2049418658362265</v>
+        <v>0.2603970515090187</v>
       </c>
       <c r="C59">
-        <v>0.1212285750449874</v>
+        <v>0.05477589945921128</v>
       </c>
       <c r="D59">
-        <v>0.04351015020366109</v>
+        <v>0.04291623769817455</v>
       </c>
       <c r="E59">
-        <v>0.05229503835503161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.006985140111210328</v>
+      </c>
+      <c r="F59">
+        <v>0.02258364549896587</v>
+      </c>
+      <c r="G59">
+        <v>-0.03593633995376303</v>
+      </c>
+      <c r="H59">
+        <v>0.03371230105443784</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1750926178499334</v>
+        <v>0.1514361795173753</v>
       </c>
       <c r="C60">
-        <v>-0.1129450976749483</v>
+        <v>-0.1683857655474582</v>
       </c>
       <c r="D60">
-        <v>0.1300760360316232</v>
+        <v>0.02147093669827975</v>
       </c>
       <c r="E60">
-        <v>-0.07324464581628853</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1068619450641036</v>
+      </c>
+      <c r="F60">
+        <v>-0.2063801893583602</v>
+      </c>
+      <c r="G60">
+        <v>0.2356884630209866</v>
+      </c>
+      <c r="H60">
+        <v>0.1519140551255941</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01987653051612146</v>
+        <v>0.01291542726378742</v>
       </c>
       <c r="C61">
-        <v>-0.06080451370916556</v>
+        <v>-0.08251868665972388</v>
       </c>
       <c r="D61">
-        <v>0.07116005469332744</v>
+        <v>0.0413813590259869</v>
       </c>
       <c r="E61">
-        <v>0.02198052118676562</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.07289280014747394</v>
+      </c>
+      <c r="F61">
+        <v>-0.008095675300912056</v>
+      </c>
+      <c r="G61">
+        <v>-0.000265869623056042</v>
+      </c>
+      <c r="H61">
+        <v>0.002431148610703736</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01013454283698937</v>
+        <v>0.01631573644745962</v>
       </c>
       <c r="C63">
-        <v>-0.02777006642776948</v>
+        <v>-0.04613840548320321</v>
       </c>
       <c r="D63">
-        <v>0.07013984412699781</v>
+        <v>0.0354301488833191</v>
       </c>
       <c r="E63">
-        <v>0.04977097737549308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.09027891022294669</v>
+      </c>
+      <c r="F63">
+        <v>0.02499840624770264</v>
+      </c>
+      <c r="G63">
+        <v>-0.004530627582710152</v>
+      </c>
+      <c r="H63">
+        <v>-0.001308694446973118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04575278472545855</v>
+        <v>0.01494718847905712</v>
       </c>
       <c r="C64">
-        <v>-0.09658405435636828</v>
+        <v>-0.1048933083139075</v>
       </c>
       <c r="D64">
-        <v>0.01545488722574336</v>
+        <v>0.005304482775593538</v>
       </c>
       <c r="E64">
-        <v>0.03107543698387362</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03250464853176022</v>
+      </c>
+      <c r="F64">
+        <v>0.02318306022032637</v>
+      </c>
+      <c r="G64">
+        <v>0.03069256021146879</v>
+      </c>
+      <c r="H64">
+        <v>-0.03570262753853788</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02604609717612933</v>
+        <v>0.02640223953418133</v>
       </c>
       <c r="C65">
-        <v>-0.01765434540434002</v>
+        <v>-0.04511007437966807</v>
       </c>
       <c r="D65">
-        <v>0.08743869819709352</v>
+        <v>0.08717661607139983</v>
       </c>
       <c r="E65">
-        <v>0.05695968807464856</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.08576196073085741</v>
+      </c>
+      <c r="F65">
+        <v>-0.006441268086147454</v>
+      </c>
+      <c r="G65">
+        <v>0.06025257410519306</v>
+      </c>
+      <c r="H65">
+        <v>-0.01210824947285901</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02012876087046393</v>
+        <v>0.007701796656366452</v>
       </c>
       <c r="C66">
-        <v>-0.07671031335468438</v>
+        <v>-0.1114667894230305</v>
       </c>
       <c r="D66">
-        <v>0.1179740028291344</v>
+        <v>0.08961422994270944</v>
       </c>
       <c r="E66">
-        <v>0.0506928127461779</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.1009430863341373</v>
+      </c>
+      <c r="F66">
+        <v>-0.002865227540737822</v>
+      </c>
+      <c r="G66">
+        <v>-0.02275226873060714</v>
+      </c>
+      <c r="H66">
+        <v>-0.008128647011442286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0152921212819645</v>
+        <v>0.01727161194904054</v>
       </c>
       <c r="C67">
-        <v>-0.01977201181936521</v>
+        <v>-0.03721339237706216</v>
       </c>
       <c r="D67">
-        <v>0.04968515688862872</v>
+        <v>0.04015085471549765</v>
       </c>
       <c r="E67">
-        <v>0.01216760020652268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.04898113972717372</v>
+      </c>
+      <c r="F67">
+        <v>-0.01697088773725664</v>
+      </c>
+      <c r="G67">
+        <v>-0.004303763087608358</v>
+      </c>
+      <c r="H67">
+        <v>-0.03085819299940854</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2139077874978877</v>
+        <v>0.2786960729728305</v>
       </c>
       <c r="C68">
-        <v>0.1322938142730713</v>
+        <v>0.06691712717774802</v>
       </c>
       <c r="D68">
-        <v>0.02178004228942121</v>
+        <v>0.03548908213314275</v>
       </c>
       <c r="E68">
-        <v>0.02839486029682144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01308512998166652</v>
+      </c>
+      <c r="F68">
+        <v>0.02581647346882358</v>
+      </c>
+      <c r="G68">
+        <v>-0.04410487428861792</v>
+      </c>
+      <c r="H68">
+        <v>0.002724055187567591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04880464660564658</v>
+        <v>0.01475775085391248</v>
       </c>
       <c r="C69">
-        <v>-0.1168606823072098</v>
+        <v>-0.1104010999713846</v>
       </c>
       <c r="D69">
-        <v>0.06437535455984528</v>
+        <v>0.01560076461939477</v>
       </c>
       <c r="E69">
-        <v>0.04546765550725474</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0143991285900116</v>
+      </c>
+      <c r="F69">
+        <v>-0.008420010935624972</v>
+      </c>
+      <c r="G69">
+        <v>0.006350607357580826</v>
+      </c>
+      <c r="H69">
+        <v>0.002668772300653172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2342215836232215</v>
+        <v>0.2720269154020661</v>
       </c>
       <c r="C71">
-        <v>0.1547872278410564</v>
+        <v>0.08163722074081671</v>
       </c>
       <c r="D71">
-        <v>0.01557764217643182</v>
+        <v>0.01194297381335372</v>
       </c>
       <c r="E71">
-        <v>0.005719611507787354</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.007025303378645856</v>
+      </c>
+      <c r="F71">
+        <v>0.01285266104361337</v>
+      </c>
+      <c r="G71">
+        <v>-0.04363820263521014</v>
+      </c>
+      <c r="H71">
+        <v>-0.02594016285537041</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09852179875707666</v>
+        <v>0.06355545005384683</v>
       </c>
       <c r="C72">
-        <v>-0.07971734603419177</v>
+        <v>-0.1248407479511222</v>
       </c>
       <c r="D72">
-        <v>0.09436084684706102</v>
+        <v>0.03493460858890702</v>
       </c>
       <c r="E72">
-        <v>0.03641641496287544</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08365622501437153</v>
+      </c>
+      <c r="F72">
+        <v>-0.01841316852821323</v>
+      </c>
+      <c r="G72">
+        <v>0.03509609496139292</v>
+      </c>
+      <c r="H72">
+        <v>0.005071969039217487</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1734842500042372</v>
+        <v>0.1575544144793427</v>
       </c>
       <c r="C73">
-        <v>-0.08940001422172668</v>
+        <v>-0.1711300482416249</v>
       </c>
       <c r="D73">
-        <v>0.1982997870624265</v>
+        <v>0.01614344052457679</v>
       </c>
       <c r="E73">
-        <v>-0.1278477362972354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2552846015292273</v>
+      </c>
+      <c r="F73">
+        <v>-0.3275329421615084</v>
+      </c>
+      <c r="G73">
+        <v>0.4046195273586138</v>
+      </c>
+      <c r="H73">
+        <v>0.1643713009024363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09843853505558421</v>
+        <v>0.05217012706397866</v>
       </c>
       <c r="C74">
-        <v>-0.1216389557222533</v>
+        <v>-0.1406594118139721</v>
       </c>
       <c r="D74">
-        <v>-0.05071814987353368</v>
+        <v>-0.04402740401401093</v>
       </c>
       <c r="E74">
-        <v>0.005004911797430811</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04181198891840399</v>
+      </c>
+      <c r="F74">
+        <v>0.03136813615139505</v>
+      </c>
+      <c r="G74">
+        <v>0.002247802562145541</v>
+      </c>
+      <c r="H74">
+        <v>-0.004694558126925937</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2092188649838519</v>
+        <v>0.09720267528460079</v>
       </c>
       <c r="C75">
-        <v>-0.2176391003204092</v>
+        <v>-0.2612117809769571</v>
       </c>
       <c r="D75">
-        <v>-0.03437120040716021</v>
+        <v>-0.1026613439457668</v>
       </c>
       <c r="E75">
-        <v>-0.09642398044550585</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1347695432501723</v>
+      </c>
+      <c r="F75">
+        <v>-0.05664220527526039</v>
+      </c>
+      <c r="G75">
+        <v>-0.1121622515473698</v>
+      </c>
+      <c r="H75">
+        <v>-0.1050626352542124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1274300409320266</v>
+        <v>0.06042277676855877</v>
       </c>
       <c r="C76">
-        <v>-0.1466315119785523</v>
+        <v>-0.177767902696502</v>
       </c>
       <c r="D76">
-        <v>0.010632262148153</v>
+        <v>-0.04290750348158424</v>
       </c>
       <c r="E76">
-        <v>-0.01097032538287708</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0463845786891085</v>
+      </c>
+      <c r="F76">
+        <v>-0.008297340646812271</v>
+      </c>
+      <c r="G76">
+        <v>-0.0498851599957502</v>
+      </c>
+      <c r="H76">
+        <v>-0.02501966050131884</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003688088382251783</v>
+        <v>-0.007562071979209154</v>
       </c>
       <c r="C77">
-        <v>-0.08369943529909553</v>
+        <v>-0.1246306932248803</v>
       </c>
       <c r="D77">
-        <v>0.2019532371177041</v>
+        <v>0.6604096462935952</v>
       </c>
       <c r="E77">
-        <v>0.2895375295332425</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.6602921538011521</v>
+      </c>
+      <c r="F77">
+        <v>-0.1420296410259954</v>
+      </c>
+      <c r="G77">
+        <v>0.1750641617586517</v>
+      </c>
+      <c r="H77">
+        <v>0.008541514829885077</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03122863051072811</v>
+        <v>0.02191464977436914</v>
       </c>
       <c r="C78">
-        <v>-0.08027110383853001</v>
+        <v>-0.09711993806706536</v>
       </c>
       <c r="D78">
-        <v>0.1331883776746057</v>
+        <v>0.0616722530291778</v>
       </c>
       <c r="E78">
-        <v>0.1223938607949458</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.1021690018330816</v>
+      </c>
+      <c r="F78">
+        <v>0.04608432984383495</v>
+      </c>
+      <c r="G78">
+        <v>-0.1055192611170817</v>
+      </c>
+      <c r="H78">
+        <v>0.03444650249769704</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1083054469858625</v>
+        <v>0.05132799647989079</v>
       </c>
       <c r="C79">
-        <v>-0.2153552304496473</v>
+        <v>-0.2172910766586277</v>
       </c>
       <c r="D79">
-        <v>-0.6578284557191948</v>
+        <v>-0.1437022251974864</v>
       </c>
       <c r="E79">
-        <v>0.5966241636952481</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1340386900531043</v>
+      </c>
+      <c r="F79">
+        <v>0.7638000893100435</v>
+      </c>
+      <c r="G79">
+        <v>0.4610462446484063</v>
+      </c>
+      <c r="H79">
+        <v>0.0613892960630265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.006333454227878353</v>
+        <v>0.008677314663958968</v>
       </c>
       <c r="C80">
-        <v>-0.04477561393420512</v>
+        <v>-0.04605441909396997</v>
       </c>
       <c r="D80">
-        <v>0.03087116762556344</v>
+        <v>0.006749884848454762</v>
       </c>
       <c r="E80">
-        <v>-0.008892452589190303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06462357805619424</v>
+      </c>
+      <c r="F80">
+        <v>-0.01269784891003564</v>
+      </c>
+      <c r="G80">
+        <v>-0.002413064017546279</v>
+      </c>
+      <c r="H80">
+        <v>0.08104433883084651</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09700315449316496</v>
+        <v>0.03299140046939478</v>
       </c>
       <c r="C81">
-        <v>-0.1408804290948299</v>
+        <v>-0.157814073865594</v>
       </c>
       <c r="D81">
-        <v>-0.07446478155245179</v>
+        <v>-0.06421575873494438</v>
       </c>
       <c r="E81">
-        <v>-0.01831176980913052</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06862744427284755</v>
+      </c>
+      <c r="F81">
+        <v>0.05267297589984268</v>
+      </c>
+      <c r="G81">
+        <v>-0.07059533405469638</v>
+      </c>
+      <c r="H81">
+        <v>-0.002159747891956809</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2018633230131268</v>
+        <v>0.07697090310256162</v>
       </c>
       <c r="C82">
-        <v>-0.3073431125361845</v>
+        <v>-0.2924508613058095</v>
       </c>
       <c r="D82">
-        <v>-0.05037717684400868</v>
+        <v>-0.1865502157752427</v>
       </c>
       <c r="E82">
-        <v>-0.2302112675469487</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1421863072853901</v>
+      </c>
+      <c r="F82">
+        <v>-0.1094002802010643</v>
+      </c>
+      <c r="G82">
+        <v>-0.1667934928200373</v>
+      </c>
+      <c r="H82">
+        <v>-0.02753706734120759</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01305371517126348</v>
+        <v>-0.006880669811243864</v>
       </c>
       <c r="C83">
-        <v>-0.04968993635104155</v>
+        <v>-0.01699827622897026</v>
       </c>
       <c r="D83">
-        <v>-0.006551092557844211</v>
+        <v>0.02299712143244761</v>
       </c>
       <c r="E83">
-        <v>0.04179694932628567</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.1011056692030999</v>
+      </c>
+      <c r="F83">
+        <v>0.09194925142431237</v>
+      </c>
+      <c r="G83">
+        <v>-0.3056327296565566</v>
+      </c>
+      <c r="H83">
+        <v>0.8862428080584204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001109022773023029</v>
+        <v>-0.004760086065223683</v>
       </c>
       <c r="C84">
-        <v>-0.004287778120016109</v>
+        <v>-0.0163577418650507</v>
       </c>
       <c r="D84">
-        <v>0.01031671393134745</v>
+        <v>0.03627035769494224</v>
       </c>
       <c r="E84">
-        <v>0.00327385000687576</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.03549699637011489</v>
+      </c>
+      <c r="F84">
+        <v>0.0362373790802707</v>
+      </c>
+      <c r="G84">
+        <v>-0.05360648447620769</v>
+      </c>
+      <c r="H84">
+        <v>-0.06129197684223317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1267571508830263</v>
+        <v>0.05408174718913132</v>
       </c>
       <c r="C85">
-        <v>-0.1549927056388877</v>
+        <v>-0.1780294960604837</v>
       </c>
       <c r="D85">
-        <v>-0.09067401623512479</v>
+        <v>-0.1185068877659362</v>
       </c>
       <c r="E85">
-        <v>-0.02766315341458808</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04295874405856537</v>
+      </c>
+      <c r="F85">
+        <v>0.05085976254877748</v>
+      </c>
+      <c r="G85">
+        <v>-0.01908032559598295</v>
+      </c>
+      <c r="H85">
+        <v>-0.02899078008222034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0230218734829333</v>
+        <v>0.01562485595178524</v>
       </c>
       <c r="C86">
-        <v>-0.01583058224438609</v>
+        <v>-0.04448015912791257</v>
       </c>
       <c r="D86">
-        <v>0.09541639806034242</v>
+        <v>0.09772348495430733</v>
       </c>
       <c r="E86">
-        <v>0.0703630166274528</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02615887665541184</v>
+      </c>
+      <c r="F86">
+        <v>0.0228038290574639</v>
+      </c>
+      <c r="G86">
+        <v>-0.006648341943032143</v>
+      </c>
+      <c r="H86">
+        <v>-0.02420086410401936</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02198016506535585</v>
+        <v>0.01072409118061054</v>
       </c>
       <c r="C87">
-        <v>-0.04021323533162424</v>
+        <v>-0.06845481346504412</v>
       </c>
       <c r="D87">
-        <v>0.1135678139357282</v>
+        <v>0.1098627675967938</v>
       </c>
       <c r="E87">
-        <v>0.1172168517657703</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07873905215346123</v>
+      </c>
+      <c r="F87">
+        <v>0.05000889547188724</v>
+      </c>
+      <c r="G87">
+        <v>-0.07994102958643132</v>
+      </c>
+      <c r="H87">
+        <v>-0.009321896807818848</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04575239141378948</v>
+        <v>0.03373253135432681</v>
       </c>
       <c r="C88">
-        <v>-0.04835003022523035</v>
+        <v>-0.07091288652572979</v>
       </c>
       <c r="D88">
-        <v>0.009990574419695175</v>
+        <v>0.01688976024324557</v>
       </c>
       <c r="E88">
-        <v>0.03238625591063773</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03948555967623211</v>
+      </c>
+      <c r="F88">
+        <v>0.02481001170025251</v>
+      </c>
+      <c r="G88">
+        <v>0.01699756185289264</v>
+      </c>
+      <c r="H88">
+        <v>-0.004787390633903805</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3489275656621745</v>
+        <v>0.3996855281775951</v>
       </c>
       <c r="C89">
-        <v>0.2925867623945039</v>
+        <v>0.1619319780661849</v>
       </c>
       <c r="D89">
-        <v>0.008181061413017887</v>
+        <v>0.05169724895060202</v>
       </c>
       <c r="E89">
-        <v>0.1367473281020657</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01474869984067881</v>
+      </c>
+      <c r="F89">
+        <v>0.08026291199614513</v>
+      </c>
+      <c r="G89">
+        <v>-0.08735683768885021</v>
+      </c>
+      <c r="H89">
+        <v>0.06377777529085726</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2791795590554822</v>
+        <v>0.3233178147400433</v>
       </c>
       <c r="C90">
-        <v>0.2101452945475725</v>
+        <v>0.1024628035670498</v>
       </c>
       <c r="D90">
-        <v>0.06116096253440138</v>
+        <v>0.03377281703808093</v>
       </c>
       <c r="E90">
-        <v>0.02806831008978311</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.007915694328946545</v>
+      </c>
+      <c r="F90">
+        <v>-0.007234107066319863</v>
+      </c>
+      <c r="G90">
+        <v>-0.05314321559346632</v>
+      </c>
+      <c r="H90">
+        <v>-0.0004146854774439436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1332820074022398</v>
+        <v>0.06389883193590792</v>
       </c>
       <c r="C91">
-        <v>-0.1990079512341816</v>
+        <v>-0.2017193541022205</v>
       </c>
       <c r="D91">
-        <v>-0.09756167614564362</v>
+        <v>-0.08347546233040931</v>
       </c>
       <c r="E91">
-        <v>0.01795010232600292</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1046575813978812</v>
+      </c>
+      <c r="F91">
+        <v>0.05545243919898571</v>
+      </c>
+      <c r="G91">
+        <v>-0.01581079414210969</v>
+      </c>
+      <c r="H91">
+        <v>0.01057682226114281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2659692379901565</v>
+        <v>0.3377408822649634</v>
       </c>
       <c r="C92">
-        <v>0.2393439046330685</v>
+        <v>0.1430272831245201</v>
       </c>
       <c r="D92">
-        <v>-0.03241824383303524</v>
+        <v>0.04493107071737616</v>
       </c>
       <c r="E92">
-        <v>0.03985734234261248</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.05106383775581388</v>
+      </c>
+      <c r="F92">
+        <v>0.04735621472370961</v>
+      </c>
+      <c r="G92">
+        <v>0.000640453212928925</v>
+      </c>
+      <c r="H92">
+        <v>-0.1206672696856848</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2975538670916176</v>
+        <v>0.329618599066558</v>
       </c>
       <c r="C93">
-        <v>0.216016396927599</v>
+        <v>0.1161247462781819</v>
       </c>
       <c r="D93">
-        <v>-0.02139096038465984</v>
+        <v>-0.02555018128238884</v>
       </c>
       <c r="E93">
-        <v>-0.0259551302478883</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.003274110638288071</v>
+      </c>
+      <c r="F93">
+        <v>0.003999879975204939</v>
+      </c>
+      <c r="G93">
+        <v>0.02520181995978375</v>
+      </c>
+      <c r="H93">
+        <v>-0.02921359336590401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2438007823022121</v>
+        <v>0.1179915374483836</v>
       </c>
       <c r="C94">
-        <v>-0.2852122290862906</v>
+        <v>-0.3167985106810201</v>
       </c>
       <c r="D94">
-        <v>-0.1275229693513505</v>
+        <v>-0.3005953786931784</v>
       </c>
       <c r="E94">
-        <v>-0.3136647867196365</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.2018174382370719</v>
+      </c>
+      <c r="F94">
+        <v>-0.1469295800934944</v>
+      </c>
+      <c r="G94">
+        <v>-0.2846346968069814</v>
+      </c>
+      <c r="H94">
+        <v>-0.1131174293538915</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.000680324366729283</v>
+        <v>0.01297863905575783</v>
       </c>
       <c r="C95">
-        <v>-0.05418441905893862</v>
+        <v>-0.07733086995192319</v>
       </c>
       <c r="D95">
-        <v>0.105757191385977</v>
+        <v>0.1521322657926189</v>
       </c>
       <c r="E95">
-        <v>0.119979365400615</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.04470092906859449</v>
+      </c>
+      <c r="F95">
+        <v>-0.01942562667475616</v>
+      </c>
+      <c r="G95">
+        <v>0.04979780851961547</v>
+      </c>
+      <c r="H95">
+        <v>-0.0435157914290032</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002369564125565244</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.000968661317811839</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0004267247537362081</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003279195357747221</v>
+      </c>
+      <c r="F97">
+        <v>5.650001845513175e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.0004830686852347059</v>
+      </c>
+      <c r="H97">
+        <v>-0.005355633407492012</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1453561645806245</v>
+        <v>0.1327559798386571</v>
       </c>
       <c r="C98">
-        <v>-0.1051902328137283</v>
+        <v>-0.1665625971255172</v>
       </c>
       <c r="D98">
-        <v>0.140272818466223</v>
+        <v>-0.006113471820788837</v>
       </c>
       <c r="E98">
-        <v>-0.124055534754717</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1563017276670591</v>
+      </c>
+      <c r="F98">
+        <v>-0.2665124372613068</v>
+      </c>
+      <c r="G98">
+        <v>0.2961581326884725</v>
+      </c>
+      <c r="H98">
+        <v>0.1417068724618937</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00356847731433647</v>
+        <v>0.001358247060067874</v>
       </c>
       <c r="C101">
-        <v>-0.02301228852378161</v>
+        <v>-0.03972575660409512</v>
       </c>
       <c r="D101">
-        <v>0.06070056195986649</v>
+        <v>0.06900865483266584</v>
       </c>
       <c r="E101">
-        <v>0.05473961597203435</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1181890854850745</v>
+      </c>
+      <c r="F101">
+        <v>0.04003774921729371</v>
+      </c>
+      <c r="G101">
+        <v>-0.0119149277443048</v>
+      </c>
+      <c r="H101">
+        <v>0.0453885134362421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.0816334799860368</v>
+        <v>0.0180632043316329</v>
       </c>
       <c r="C102">
-        <v>-0.1651608260289063</v>
+        <v>-0.1351698918691042</v>
       </c>
       <c r="D102">
-        <v>0.01073576444607208</v>
+        <v>-0.07516809363191236</v>
       </c>
       <c r="E102">
-        <v>-0.09420844731034597</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.07176414993709303</v>
+      </c>
+      <c r="F102">
+        <v>-0.07945380873050388</v>
+      </c>
+      <c r="G102">
+        <v>-0.02590998351577688</v>
+      </c>
+      <c r="H102">
+        <v>0.02163027186746684</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
